--- a/Resumo_Equipe_Lotes_2025-07-17.xlsx
+++ b/Resumo_Equipe_Lotes_2025-07-17.xlsx
@@ -12002,7 +12002,7 @@
         </is>
       </c>
       <c r="D19" s="8" t="n">
-        <v>5000</v>
+        <v>50</v>
       </c>
       <c r="E19" s="9">
         <f>IFERROR(VLOOKUP(B19,TabelaPrecos_Lote_25,2,FALSE)*D19,"-")</f>
